--- a/DOCs/ОбъектыУСПиКонтрольныеОперации.xlsx
+++ b/DOCs/ОбъектыУСПиКонтрольныеОперации.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>Управленческий график производства работ</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>Формирование отчета</t>
-  </si>
-  <si>
-    <t>Не ресурсоемкая</t>
   </si>
   <si>
     <t>Отчет.BI_АктыОтклонения</t>
@@ -312,18 +309,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -365,18 +354,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -661,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -712,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -796,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,7 +810,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -838,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -852,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,7 +852,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -922,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,7 +922,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -950,7 +936,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,7 +964,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,7 +978,7 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,7 +1006,7 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1034,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1048,7 +1034,7 @@
         <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1062,7 +1048,7 @@
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,7 +1062,7 @@
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,7 +1076,7 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,7 +1090,7 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1118,7 +1104,7 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1132,7 +1118,7 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,7 +1132,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1160,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1174,7 +1160,7 @@
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1188,7 +1174,7 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1188,7 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,7 +1230,7 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,7 +1258,7 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,7 +1272,7 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,8 +1285,8 @@
       <c r="C59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>70</v>
+      <c r="D59" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,7 +1300,7 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1342,7 +1328,7 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1370,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1384,7 +1370,7 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1398,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1412,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1426,7 +1412,7 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1440,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,7 +1440,7 @@
         <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1468,7 +1454,7 @@
         <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,7 +1468,7 @@
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1496,7 +1482,7 @@
         <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1510,12 +1496,12 @@
         <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>56</v>
@@ -1524,12 +1510,12 @@
         <v>69</v>
       </c>
       <c r="D81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>57</v>
@@ -1538,12 +1524,12 @@
         <v>69</v>
       </c>
       <c r="D83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>58</v>
@@ -1557,7 +1543,7 @@
     </row>
     <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>59</v>
@@ -1566,12 +1552,12 @@
         <v>69</v>
       </c>
       <c r="D87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>60</v>
@@ -1580,12 +1566,12 @@
         <v>69</v>
       </c>
       <c r="D89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>61</v>
@@ -1594,12 +1580,12 @@
         <v>69</v>
       </c>
       <c r="D91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>62</v>
@@ -1608,12 +1594,12 @@
         <v>69</v>
       </c>
       <c r="D93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>63</v>
@@ -1622,12 +1608,12 @@
         <v>69</v>
       </c>
       <c r="D95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>64</v>
@@ -1636,12 +1622,12 @@
         <v>69</v>
       </c>
       <c r="D97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>65</v>
@@ -1650,12 +1636,12 @@
         <v>69</v>
       </c>
       <c r="D99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>66</v>
@@ -1664,12 +1650,12 @@
         <v>69</v>
       </c>
       <c r="D101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>67</v>
@@ -1678,12 +1664,12 @@
         <v>69</v>
       </c>
       <c r="D103" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>68</v>
@@ -1692,12 +1678,12 @@
         <v>69</v>
       </c>
       <c r="D105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>48</v>
@@ -1706,12 +1692,12 @@
         <v>69</v>
       </c>
       <c r="D107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>49</v>
@@ -1720,12 +1706,12 @@
         <v>69</v>
       </c>
       <c r="D109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>50</v>
@@ -1734,12 +1720,12 @@
         <v>69</v>
       </c>
       <c r="D111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>51</v>
@@ -1748,12 +1734,12 @@
         <v>69</v>
       </c>
       <c r="D113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>52</v>
@@ -1762,12 +1748,12 @@
         <v>69</v>
       </c>
       <c r="D115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>53</v>
@@ -1776,12 +1762,12 @@
         <v>69</v>
       </c>
       <c r="D117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>54</v>
@@ -1790,12 +1776,12 @@
         <v>69</v>
       </c>
       <c r="D119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>55</v>
@@ -1804,7 +1790,7 @@
         <v>69</v>
       </c>
       <c r="D121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
